--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_13-07.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_13-07.xlsx
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>8:0</t>
+  </si>
+  <si>
+    <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
     <t>معجون اسنان فلورو بالكولا</t>
@@ -1250,51 +1253,77 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="26.25" customHeight="1">
-      <c r="K25" s="10">
-        <v>1513.04</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="11">
+    <row r="25" ht="25.5" customHeight="1">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c t="s" r="B25" s="7">
         <v>43</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c t="s" r="F26" s="12">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c t="s" r="H25" s="8">
+        <v>14</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9">
+        <v>30</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c t="s" r="N25" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="K26" s="10">
+        <v>1533.04</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="11">
         <v>44</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c t="s" r="I26" s="14">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c t="s" r="F27" s="12">
         <v>45</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c t="s" r="I27" s="14">
+        <v>46</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="77">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1365,10 +1394,13 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:N27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
